--- a/RemoveStaffingWorkaroundv2/Default.xlsx
+++ b/RemoveStaffingWorkaroundv2/Default.xlsx
@@ -483,7 +483,7 @@
     <col min="1" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -507,7 +507,7 @@
     <col min="1" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="12.75" customHeight="1" customFormat="1"/>
+    <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
